--- a/biology/Virologie/Ackermannviridae/Ackermannviridae.xlsx
+++ b/biology/Virologie/Ackermannviridae/Ackermannviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ackermannviridae sont une famille de virus à ADN de l'ordre des Caudovirales. Ses hôtes naturels sont des bactéries Gammaproteobacteria du groupe des Proteobacteria. Elle contient actuellement deux sous-familles, quatre genres et vingt-et-une espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ackermannviridae sont une famille de virus à ADN de l'ordre des Caudovirales. Ses hôtes naturels sont des bactéries Gammaproteobacteria du groupe des Proteobacteria. Elle contient actuellement deux sous-familles, quatre genres et vingt-et-une espèces.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La famille des Ackermannviridae contient les taxons suivants[2] (les sous-familles se terminent par -virinae et les genres par -virus) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La famille des Ackermannviridae contient les taxons suivants (les sous-familles se terminent par -virinae et les genres par -virus) :
 Aglimvirinae
 Agtrevirus
 Limestonevirus
 Cvivirinae
 Kuttervirus
-Incertae sedis[2] (place indéfinie dans la classification) :
+Incertae sedis (place indéfinie dans la classification) :
 Genre : Taipeivirus
 Espèce : Erwinia virus Ea2809
 Espèce : Serratia virus MAM1</t>
